--- a/перерывы_сборка.xlsx
+++ b/перерывы_сборка.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ9"/>
+  <dimension ref="A1:CQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,6 +824,91 @@
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
+          <t>Киров</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Киров</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Киров</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Ростов</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Ростов</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Ростов</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>НиНо</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>НиНо</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>НиНо</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>НиНо</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
           <t>НиНо</t>
         </is>
       </c>
@@ -1208,7 +1293,92 @@
       </c>
       <c r="BZ2" s="1" t="inlineStr">
         <is>
+          <t>Ткачева Л. С.</t>
+        </is>
+      </c>
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>Шведа Е. В.</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
+        <is>
+          <t>Кочеткова К. Л.</t>
+        </is>
+      </c>
+      <c r="CC2" s="1" t="inlineStr">
+        <is>
+          <t>Маркова М. В.</t>
+        </is>
+      </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>Поселенцев А. В.</t>
+        </is>
+      </c>
+      <c r="CE2" s="1" t="inlineStr">
+        <is>
+          <t>Ливенцева М. В.</t>
+        </is>
+      </c>
+      <c r="CF2" s="1" t="inlineStr">
+        <is>
+          <t>Гурова О. С.</t>
+        </is>
+      </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>Лапенко Д. Ю.</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>Костина В. А.</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>Соболева О. Б.</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>Заславская А. К.</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>Рыкалова О. В.</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>Тюдешева С. В.</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
           <t>Верховцев Н. К.</t>
+        </is>
+      </c>
+      <c r="CN2" s="1" t="inlineStr">
+        <is>
+          <t>Шутлива В. А.</t>
+        </is>
+      </c>
+      <c r="CO2" s="1" t="inlineStr">
+        <is>
+          <t>Сацкая Ж. А.</t>
+        </is>
+      </c>
+      <c r="CP2" s="1" t="inlineStr">
+        <is>
+          <t>Крохин Н. М.</t>
+        </is>
+      </c>
+      <c r="CQ2" s="1" t="inlineStr">
+        <is>
+          <t>Татаринова А. А.</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1762,92 @@
       </c>
       <c r="BZ3" s="1" t="inlineStr">
         <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CA3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CB3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CC3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CD3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CE3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CF3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CJ3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CK3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CL3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CM3" s="1" t="inlineStr">
+        <is>
           <t>5/2</t>
+        </is>
+      </c>
+      <c r="CN3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CO3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CP3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="CQ3" s="1" t="inlineStr">
+        <is>
+          <t>2/2</t>
         </is>
       </c>
     </row>
@@ -1976,7 +2231,92 @@
       </c>
       <c r="BZ4" s="1" t="inlineStr">
         <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CA4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CB4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CC4" s="1" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="CD4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CE4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CF4" s="1" t="inlineStr">
+        <is>
           <t>9:00</t>
+        </is>
+      </c>
+      <c r="CG4" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="CH4" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="CI4" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="CJ4" s="1" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="CK4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CL4" s="1" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="CM4" s="1" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="CN4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="CO4" s="1" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="CP4" s="1" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="CQ4" s="1" t="inlineStr">
+        <is>
+          <t>8:00</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2700,92 @@
       </c>
       <c r="BZ5" s="1" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CA5" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CB5" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CC5" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="CD5" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CE5" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CF5" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="CG5" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="CH5" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="CI5" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="CJ5" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="CK5" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CL5" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="CM5" s="1" t="inlineStr">
+        <is>
           <t>18:00</t>
+        </is>
+      </c>
+      <c r="CN5" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="CO5" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="CP5" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="CQ5" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2743,6 +3168,91 @@
         </is>
       </c>
       <c r="BZ6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CA6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CB6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CC6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CD6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CE6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CF6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CG6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CH6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CI6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CJ6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CK6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CL6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CM6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CN6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CO6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CP6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="CQ6" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
@@ -2979,7 +3489,58 @@
         <v>8</v>
       </c>
       <c r="BZ7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CB7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CD7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CE7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CF7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CG7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CH7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CI7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CJ7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CL7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CM7" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="CN7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CO7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="CP7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="CQ7" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3217,7 +3778,58 @@
         <v>65</v>
       </c>
       <c r="BZ8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CA8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CB8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CC8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CE8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CF8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CG8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CH8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CI8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CJ8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CK8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CL8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CM8" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="CN8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="CP8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -3526,6 +4138,74 @@
       </c>
       <c r="BZ9" s="1">
         <f>SUM(BZ10:BZ273)</f>
+        <v/>
+      </c>
+      <c r="CA9" s="1">
+        <f>SUM(CA10:CA273)</f>
+        <v/>
+      </c>
+      <c r="CB9" s="1">
+        <f>SUM(CB10:CB273)</f>
+        <v/>
+      </c>
+      <c r="CC9" s="1">
+        <f>SUM(CC10:CC273)</f>
+        <v/>
+      </c>
+      <c r="CD9" s="1">
+        <f>SUM(CD10:CD273)</f>
+        <v/>
+      </c>
+      <c r="CE9" s="1">
+        <f>SUM(CE10:CE273)</f>
+        <v/>
+      </c>
+      <c r="CF9" s="1">
+        <f>SUM(CF10:CF273)</f>
+        <v/>
+      </c>
+      <c r="CG9" s="1">
+        <f>SUM(CG10:CG273)</f>
+        <v/>
+      </c>
+      <c r="CH9" s="1">
+        <f>SUM(CH10:CH273)</f>
+        <v/>
+      </c>
+      <c r="CI9" s="1">
+        <f>SUM(CI10:CI273)</f>
+        <v/>
+      </c>
+      <c r="CJ9" s="1">
+        <f>SUM(CJ10:CJ273)</f>
+        <v/>
+      </c>
+      <c r="CK9" s="1">
+        <f>SUM(CK10:CK273)</f>
+        <v/>
+      </c>
+      <c r="CL9" s="1">
+        <f>SUM(CL10:CL273)</f>
+        <v/>
+      </c>
+      <c r="CM9" s="1">
+        <f>SUM(CM10:CM273)</f>
+        <v/>
+      </c>
+      <c r="CN9" s="1">
+        <f>SUM(CN10:CN273)</f>
+        <v/>
+      </c>
+      <c r="CO9" s="1">
+        <f>SUM(CO10:CO273)</f>
+        <v/>
+      </c>
+      <c r="CP9" s="1">
+        <f>SUM(CP10:CP273)</f>
+        <v/>
+      </c>
+      <c r="CQ9" s="1">
+        <f>SUM(CQ10:CQ273)</f>
         <v/>
       </c>
     </row>
